--- a/data/wine_label.xlsx
+++ b/data/wine_label.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/freeverc/PycharmProjects/WineClassification/WineClassification/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freeverc\PycharmProjects\WineClassify\WineClassification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40149212-DBB9-134E-B2FA-5BA1C908330C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD2915-69D3-4D3C-B614-D072CBEB765A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1460" windowWidth="27440" windowHeight="15100" xr2:uid="{5DB8F10A-BA5D-2C46-9BB3-BAF58D3C56C6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5DB8F10A-BA5D-2C46-9BB3-BAF58D3C56C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -583,7 +583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -622,8 +622,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,13 +945,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB49960-6364-EE49-BA0A-857C838250D7}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>181</v>
       </c>
@@ -977,9 +980,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>201</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1006,9 +1009,9 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>207</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1026,9 +1029,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>211</v>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1043,9 +1046,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>244</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1066,9 +1069,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>250</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1083,9 +1086,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>251</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1100,9 +1103,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>280</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1120,9 +1123,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>283</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -1146,9 +1149,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>284</v>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -1163,9 +1166,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>285</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1183,9 +1186,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>286</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -1206,9 +1209,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>290</v>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1226,9 +1229,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>299</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>103</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
@@ -1249,9 +1252,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>331</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
@@ -1272,9 +1275,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>333</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -1289,9 +1292,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>346</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>150</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
@@ -1315,9 +1318,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>350</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>154</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -1341,9 +1344,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>224</v>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
@@ -1364,9 +1367,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>225</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>47</v>
@@ -1381,9 +1384,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21">
-        <v>228</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>47</v>
@@ -1398,9 +1401,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22">
-        <v>230</v>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>47</v>
@@ -1415,9 +1418,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23">
-        <v>241</v>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -1441,9 +1444,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24">
-        <v>247</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>51</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -1464,9 +1467,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25">
-        <v>294</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>98</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -1481,9 +1484,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26">
-        <v>332</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -1495,9 +1498,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27">
-        <v>199</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -1515,9 +1518,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28">
-        <v>202</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -1538,9 +1541,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29">
-        <v>229</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -1555,9 +1558,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30">
-        <v>232</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -1572,9 +1575,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31">
-        <v>233</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>66</v>
@@ -1586,9 +1589,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32">
-        <v>234</v>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -1597,9 +1600,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33">
-        <v>235</v>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -1608,9 +1611,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34">
-        <v>236</v>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -1619,9 +1622,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35">
-        <v>243</v>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -1642,9 +1645,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36">
-        <v>249</v>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>25</v>
@@ -1659,9 +1662,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37">
-        <v>254</v>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>58</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -1673,9 +1676,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38">
-        <v>255</v>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>59</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -1690,9 +1693,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39">
-        <v>263</v>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>74</v>
@@ -1716,9 +1719,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40">
-        <v>269</v>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
@@ -1739,9 +1742,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41">
-        <v>270</v>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -1753,9 +1756,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
-      <c r="A42">
-        <v>271</v>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>75</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -1764,9 +1767,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>278</v>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -1784,9 +1787,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>279</v>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
@@ -1807,9 +1810,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>281</v>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>79</v>
@@ -1830,9 +1833,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>282</v>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>80</v>
@@ -1853,9 +1856,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>287</v>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -1870,9 +1873,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>288</v>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>92</v>
       </c>
       <c r="C48" t="s">
         <v>25</v>
@@ -1887,9 +1890,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>289</v>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>93</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -1904,9 +1907,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>293</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>97</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -1918,9 +1921,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>296</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>32</v>
@@ -1941,9 +1944,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>298</v>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>32</v>
@@ -1964,9 +1967,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>305</v>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>109</v>
       </c>
       <c r="B53" t="s">
         <v>85</v>
@@ -1990,9 +1993,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>306</v>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>85</v>
@@ -2016,9 +2019,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>307</v>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>111</v>
       </c>
       <c r="B55" t="s">
         <v>85</v>
@@ -2039,9 +2042,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>308</v>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>112</v>
       </c>
       <c r="B56" t="s">
         <v>85</v>
@@ -2062,9 +2065,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>309</v>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>113</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -2076,9 +2079,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>310</v>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>114</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -2093,9 +2096,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>311</v>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>115</v>
       </c>
       <c r="B59" t="s">
         <v>90</v>
@@ -2119,9 +2122,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>313</v>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>117</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
@@ -2142,9 +2145,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>315</v>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>119</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -2165,9 +2168,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>316</v>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>120</v>
       </c>
       <c r="C62" t="s">
         <v>25</v>
@@ -2188,9 +2191,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>317</v>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>121</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -2211,9 +2214,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>318</v>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>122</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
@@ -2231,9 +2234,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>319</v>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>123</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
@@ -2254,9 +2257,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>320</v>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>96</v>
@@ -2274,9 +2277,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>323</v>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>127</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -2288,9 +2291,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>324</v>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>128</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
@@ -2299,9 +2302,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>325</v>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>129</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
@@ -2325,9 +2328,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>328</v>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>132</v>
       </c>
       <c r="B70" t="s">
         <v>98</v>
@@ -2351,9 +2354,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>329</v>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>133</v>
       </c>
       <c r="B71" t="s">
         <v>98</v>
@@ -2368,9 +2371,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>334</v>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>138</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -2385,9 +2388,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <v>340</v>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>144</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -2399,9 +2402,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
-        <v>341</v>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>145</v>
       </c>
       <c r="B74" t="s">
         <v>103</v>
@@ -2425,9 +2428,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
-        <v>342</v>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>146</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -2442,9 +2445,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>347</v>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>151</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
@@ -2456,9 +2459,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77">
-        <v>348</v>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
@@ -2470,9 +2473,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78">
-        <v>351</v>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>155</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
@@ -2484,9 +2487,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79">
-        <v>359</v>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>163</v>
       </c>
       <c r="B79" t="s">
         <v>110</v>
@@ -2510,9 +2513,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80">
-        <v>362</v>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>166</v>
       </c>
       <c r="B80" t="s">
         <v>112</v>
@@ -2536,9 +2539,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>368</v>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>172</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -2559,9 +2562,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
-        <v>369</v>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>173</v>
       </c>
       <c r="C82" t="s">
         <v>25</v>
@@ -2582,9 +2585,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
-        <v>370</v>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>174</v>
       </c>
       <c r="B83" t="s">
         <v>119</v>
@@ -2605,9 +2608,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
-        <v>371</v>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>175</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -2625,9 +2628,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>376</v>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>180</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
@@ -2648,9 +2651,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>377</v>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>181</v>
       </c>
       <c r="C86" t="s">
         <v>25</v>
@@ -2668,9 +2671,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>380</v>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>184</v>
       </c>
       <c r="C87" t="s">
         <v>25</v>
@@ -2688,9 +2691,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
-        <v>382</v>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>186</v>
       </c>
       <c r="B88" t="s">
         <v>125</v>
@@ -2705,9 +2708,9 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>383</v>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>187</v>
       </c>
       <c r="B89" t="s">
         <v>125</v>
@@ -2722,9 +2725,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>384</v>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>188</v>
       </c>
       <c r="B90" t="s">
         <v>125</v>
@@ -2736,9 +2739,9 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>385</v>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>189</v>
       </c>
       <c r="B91" t="s">
         <v>125</v>
@@ -2750,9 +2753,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
-        <v>386</v>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>125</v>
@@ -2764,9 +2767,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93">
-        <v>387</v>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>191</v>
       </c>
       <c r="B93" t="s">
         <v>125</v>
@@ -2781,9 +2784,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94">
-        <v>388</v>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>192</v>
       </c>
       <c r="B94" t="s">
         <v>126</v>
@@ -2804,9 +2807,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95">
-        <v>390</v>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>194</v>
       </c>
       <c r="C95" t="s">
         <v>25</v>
@@ -2824,9 +2827,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
-      <c r="A96">
-        <v>391</v>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>195</v>
       </c>
       <c r="B96" t="s">
         <v>128</v>
@@ -2844,9 +2847,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
-      <c r="A97">
-        <v>395</v>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>199</v>
       </c>
       <c r="C97" t="s">
         <v>25</v>
@@ -2861,9 +2864,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98">
-        <v>396</v>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>129</v>
@@ -2884,9 +2887,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
-      <c r="A99">
-        <v>400</v>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>204</v>
       </c>
       <c r="C99" t="s">
         <v>25</v>
@@ -2898,9 +2901,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
-      <c r="A100">
-        <v>401</v>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>205</v>
       </c>
       <c r="C100" t="s">
         <v>25</v>
@@ -2909,9 +2912,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101">
-        <v>402</v>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>206</v>
       </c>
       <c r="C101" t="s">
         <v>25</v>
@@ -2926,9 +2929,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
-      <c r="A102">
-        <v>403</v>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>207</v>
       </c>
       <c r="B102" t="s">
         <v>132</v>
@@ -2952,9 +2955,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
-      <c r="A103">
-        <v>197</v>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>1</v>
       </c>
       <c r="B103" t="s">
         <v>134</v>
@@ -2975,9 +2978,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
-      <c r="A104">
-        <v>198</v>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>2</v>
       </c>
       <c r="C104" t="s">
         <v>34</v>
@@ -2995,9 +2998,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>200</v>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>34</v>
@@ -3015,9 +3018,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>203</v>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>34</v>
@@ -3038,9 +3041,9 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>206</v>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>10</v>
       </c>
       <c r="B107" t="s">
         <v>141</v>
@@ -3061,9 +3064,9 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>210</v>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>14</v>
       </c>
       <c r="B108" t="s">
         <v>142</v>
@@ -3084,9 +3087,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>213</v>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>17</v>
       </c>
       <c r="C109" t="s">
         <v>34</v>
@@ -3098,9 +3101,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>214</v>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>18</v>
       </c>
       <c r="B110" t="s">
         <v>143</v>
@@ -3121,9 +3124,9 @@
         <v>2009.4</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>215</v>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>19</v>
       </c>
       <c r="C111" t="s">
         <v>34</v>
@@ -3135,9 +3138,9 @@
         <v>2017.4</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>219</v>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>23</v>
       </c>
       <c r="B112" t="s">
         <v>146</v>
@@ -3155,9 +3158,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>220</v>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>24</v>
       </c>
       <c r="C113" t="s">
         <v>34</v>
@@ -3166,9 +3169,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
-      <c r="A114">
-        <v>221</v>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>25</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
@@ -3177,9 +3180,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
-        <v>227</v>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>31</v>
       </c>
       <c r="C115" t="s">
         <v>34</v>
@@ -3194,9 +3197,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>231</v>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>35</v>
       </c>
       <c r="C116" t="s">
         <v>34</v>
@@ -3211,9 +3214,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
-      <c r="A117">
-        <v>238</v>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>42</v>
       </c>
       <c r="B117" t="s">
         <v>147</v>
@@ -3234,9 +3237,9 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
-        <v>239</v>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43</v>
       </c>
       <c r="C118" t="s">
         <v>34</v>
@@ -3254,9 +3257,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
-      <c r="A119">
-        <v>242</v>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>46</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
@@ -3277,9 +3280,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
-      <c r="A120">
-        <v>248</v>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>52</v>
       </c>
       <c r="C120" t="s">
         <v>34</v>
@@ -3294,9 +3297,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
-      <c r="A121">
-        <v>258</v>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>62</v>
       </c>
       <c r="C121" t="s">
         <v>34</v>
@@ -3311,9 +3314,9 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
-      <c r="A122">
-        <v>264</v>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>68</v>
       </c>
       <c r="C122" t="s">
         <v>34</v>
@@ -3328,9 +3331,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
-      <c r="A123">
-        <v>273</v>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>77</v>
       </c>
       <c r="C123" t="s">
         <v>34</v>
@@ -3339,9 +3342,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124">
-        <v>295</v>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>99</v>
       </c>
       <c r="C124" t="s">
         <v>34</v>
@@ -3356,9 +3359,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
-      <c r="A125">
-        <v>300</v>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>104</v>
       </c>
       <c r="B125" t="s">
         <v>32</v>
@@ -3379,9 +3382,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
-      <c r="A126">
-        <v>301</v>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>105</v>
       </c>
       <c r="B126" t="s">
         <v>85</v>
@@ -3402,9 +3405,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127">
-        <v>302</v>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>106</v>
       </c>
       <c r="B127" t="s">
         <v>85</v>
@@ -3425,9 +3428,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
-        <v>303</v>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>107</v>
       </c>
       <c r="B128" t="s">
         <v>85</v>
@@ -3445,9 +3448,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129">
-        <v>304</v>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>108</v>
       </c>
       <c r="B129" t="s">
         <v>85</v>
@@ -3465,9 +3468,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130">
-        <v>312</v>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>116</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -3488,9 +3491,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131">
-        <v>314</v>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>118</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
@@ -3511,9 +3514,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
-        <v>330</v>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>134</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
@@ -3531,9 +3534,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>336</v>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>140</v>
       </c>
       <c r="B133" t="s">
         <v>132</v>
@@ -3554,9 +3557,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134">
-        <v>339</v>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>143</v>
       </c>
       <c r="B134" t="s">
         <v>160</v>
@@ -3580,9 +3583,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
-      <c r="A135">
-        <v>357</v>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>161</v>
       </c>
       <c r="B135" t="s">
         <v>162</v>
@@ -3606,9 +3609,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
-      <c r="A136">
-        <v>365</v>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>169</v>
       </c>
       <c r="B136" t="s">
         <v>164</v>
@@ -3632,9 +3635,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
-      <c r="A137">
-        <v>373</v>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>177</v>
       </c>
       <c r="B137" t="s">
         <v>167</v>
@@ -3658,9 +3661,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
-      <c r="A138">
-        <v>374</v>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>178</v>
       </c>
       <c r="B138" t="s">
         <v>170</v>
@@ -3681,9 +3684,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
-      <c r="A139">
-        <v>375</v>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>179</v>
       </c>
       <c r="B139" t="s">
         <v>171</v>
@@ -3704,9 +3707,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140">
-        <v>378</v>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>182</v>
       </c>
       <c r="C140" t="s">
         <v>34</v>
@@ -3724,9 +3727,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
-      <c r="A141">
-        <v>379</v>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>183</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
@@ -3744,9 +3747,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
-      <c r="A142">
-        <v>381</v>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>185</v>
       </c>
       <c r="C142" t="s">
         <v>34</v>
@@ -3764,9 +3767,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
-      <c r="A143">
-        <v>389</v>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>193</v>
       </c>
       <c r="C143" t="s">
         <v>34</v>
@@ -3784,9 +3787,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144">
-        <v>393</v>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>197</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
@@ -3795,9 +3798,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
-      <c r="A145">
-        <v>394</v>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>198</v>
       </c>
       <c r="C145" t="s">
         <v>34</v>
@@ -3806,9 +3809,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146">
-        <v>404</v>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>208</v>
       </c>
       <c r="B146" t="s">
         <v>176</v>
@@ -3829,12 +3832,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
         <v>34</v>
       </c>
@@ -3842,17 +3845,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>34</v>
       </c>
@@ -3860,14 +3863,14 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
-      <c r="A153">
-        <v>268</v>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>72</v>
       </c>
       <c r="D153" t="s">
         <v>178</v>
@@ -3882,9 +3885,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
-      <c r="A154">
-        <v>277</v>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>81</v>
       </c>
       <c r="B154" t="s">
         <v>179</v>

--- a/data/wine_label.xlsx
+++ b/data/wine_label.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freeverc\PycharmProjects\WineClassify\WineClassification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD2915-69D3-4D3C-B614-D072CBEB765A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35117513-9412-4EC6-BB0D-1C4DCCB8AE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5DB8F10A-BA5D-2C46-9BB3-BAF58D3C56C6}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>厂家</t>
   </si>
   <si>
-    <t>感官鉴定</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -577,6 +574,10 @@
   </si>
   <si>
     <t>编号</t>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -945,39 +946,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB49960-6364-EE49-BA0A-857C838250D7}">
   <dimension ref="A1:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -985,25 +986,25 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>67.400000000000006</v>
@@ -1014,16 +1015,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <v>66</v>
@@ -1034,16 +1035,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1051,19 +1052,19 @@
         <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>3.5</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>66</v>
@@ -1074,16 +1075,16 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1091,16 +1092,16 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1108,19 +1109,19 @@
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1128,25 +1129,25 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1154,16 +1155,16 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1171,19 +1172,19 @@
         <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1191,22 +1192,22 @@
         <v>90</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1214,19 +1215,19 @@
         <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1234,22 +1235,22 @@
         <v>103</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
         <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1257,22 +1258,22 @@
         <v>135</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1280,16 +1281,16 @@
         <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1297,25 +1298,25 @@
         <v>150</v>
       </c>
       <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1323,25 +1324,25 @@
         <v>154</v>
       </c>
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1349,22 +1350,22 @@
         <v>28</v>
       </c>
       <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1372,16 +1373,16 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1389,16 +1390,16 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1406,16 +1407,16 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1423,22 +1424,22 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I23">
         <v>66</v>
@@ -1449,22 +1450,22 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
         <v>57</v>
-      </c>
-      <c r="F24" t="s">
-        <v>58</v>
       </c>
       <c r="G24">
         <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,16 +1473,16 @@
         <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1489,13 +1490,13 @@
         <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
         <v>60</v>
-      </c>
-      <c r="G26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1503,19 +1504,19 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1523,19 +1524,19 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>2015.12</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28">
         <v>65</v>
@@ -1546,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1563,16 +1564,16 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1580,13 +1581,13 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1594,10 +1595,10 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1605,10 +1606,10 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1616,10 +1617,10 @@
         <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1627,19 +1628,19 @@
         <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I35">
         <v>66</v>
@@ -1650,16 +1651,16 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1667,13 +1668,13 @@
         <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1681,16 +1682,16 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -1698,25 +1699,25 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1724,22 +1725,22 @@
         <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
         <v>21</v>
-      </c>
-      <c r="F40" t="s">
-        <v>22</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -1747,13 +1748,13 @@
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -1761,7 +1762,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1772,19 +1773,19 @@
         <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
         <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>22</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -1792,22 +1793,22 @@
         <v>83</v>
       </c>
       <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
         <v>77</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>78</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -1815,22 +1816,22 @@
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1838,22 +1839,22 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
         <v>80</v>
       </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
         <v>81</v>
       </c>
-      <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>82</v>
-      </c>
-      <c r="H46" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1861,16 +1862,16 @@
         <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G47">
         <v>5</v>
       </c>
       <c r="H47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -1878,16 +1879,16 @@
         <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1895,16 +1896,16 @@
         <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1912,10 +1913,10 @@
         <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1926,22 +1927,22 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
         <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>22</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1949,22 +1950,22 @@
         <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1972,25 +1973,25 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
         <v>85</v>
       </c>
-      <c r="C53" t="s">
-        <v>25</v>
-      </c>
-      <c r="D53" t="s">
-        <v>86</v>
-      </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1998,25 +1999,25 @@
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" t="s">
         <v>35</v>
       </c>
-      <c r="G54" t="s">
-        <v>36</v>
-      </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2024,22 +2025,22 @@
         <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2047,22 +2048,22 @@
         <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2070,13 +2071,13 @@
         <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2084,16 +2085,16 @@
         <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2101,25 +2102,25 @@
         <v>115</v>
       </c>
       <c r="B59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
         <v>90</v>
       </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>91</v>
-      </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2127,22 +2128,22 @@
         <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -2150,22 +2151,22 @@
         <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2173,22 +2174,22 @@
         <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2196,22 +2197,22 @@
         <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -2219,19 +2220,19 @@
         <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>35</v>
       </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2239,22 +2240,22 @@
         <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2262,19 +2263,19 @@
         <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
         <v>35</v>
       </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2282,13 +2283,13 @@
         <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2296,10 +2297,10 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2307,25 +2308,25 @@
         <v>129</v>
       </c>
       <c r="B69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
         <v>98</v>
       </c>
-      <c r="C69" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
-      </c>
       <c r="E69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2333,25 +2334,25 @@
         <v>132</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -2359,16 +2360,16 @@
         <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2376,16 +2377,16 @@
         <v>138</v>
       </c>
       <c r="C72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2393,13 +2394,13 @@
         <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2407,25 +2408,25 @@
         <v>145</v>
       </c>
       <c r="B74" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
         <v>103</v>
       </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s">
         <v>104</v>
-      </c>
-      <c r="E74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>35</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -2433,16 +2434,16 @@
         <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -2450,13 +2451,13 @@
         <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2464,13 +2465,13 @@
         <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2478,13 +2479,13 @@
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -2492,25 +2493,25 @@
         <v>163</v>
       </c>
       <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
         <v>110</v>
       </c>
-      <c r="C79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" t="s">
-        <v>111</v>
-      </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -2518,25 +2519,25 @@
         <v>166</v>
       </c>
       <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
         <v>112</v>
       </c>
-      <c r="C80" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" t="s">
-        <v>113</v>
-      </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" t="s">
         <v>35</v>
       </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -2544,22 +2545,22 @@
         <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D81" t="s">
+        <v>113</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" t="s">
         <v>114</v>
       </c>
-      <c r="E81" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>35</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>115</v>
-      </c>
-      <c r="H81" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2567,22 +2568,22 @@
         <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" t="s">
         <v>117</v>
       </c>
-      <c r="E82" t="s">
-        <v>34</v>
-      </c>
-      <c r="F82" t="s">
-        <v>35</v>
-      </c>
-      <c r="G82" t="s">
-        <v>118</v>
-      </c>
       <c r="H82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -2590,22 +2591,22 @@
         <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" t="s">
         <v>117</v>
       </c>
-      <c r="F83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" t="s">
-        <v>118</v>
-      </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2613,19 +2614,19 @@
         <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -2633,22 +2634,22 @@
         <v>180</v>
       </c>
       <c r="B85" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" t="s">
         <v>120</v>
       </c>
-      <c r="C85" t="s">
-        <v>25</v>
-      </c>
-      <c r="E85" t="s">
-        <v>47</v>
-      </c>
-      <c r="F85" t="s">
-        <v>35</v>
-      </c>
-      <c r="G85" t="s">
-        <v>121</v>
-      </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -2656,19 +2657,19 @@
         <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
+        <v>121</v>
+      </c>
+      <c r="H86" t="s">
         <v>122</v>
-      </c>
-      <c r="H86" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2676,19 +2677,19 @@
         <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -2696,13 +2697,13 @@
         <v>186</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>2018</v>
@@ -2713,16 +2714,16 @@
         <v>187</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G89">
         <v>2017.3</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -2730,10 +2731,10 @@
         <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G90">
         <v>2014</v>
@@ -2744,10 +2745,10 @@
         <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G91">
         <v>2013</v>
@@ -2758,10 +2759,10 @@
         <v>190</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G92">
         <v>2016</v>
@@ -2772,16 +2773,16 @@
         <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G93">
         <v>2017.11</v>
       </c>
       <c r="H93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2789,22 +2790,22 @@
         <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
         <v>35</v>
       </c>
-      <c r="G94" t="s">
-        <v>36</v>
-      </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -2812,19 +2813,19 @@
         <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -2832,19 +2833,19 @@
         <v>195</v>
       </c>
       <c r="B96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -2852,16 +2853,16 @@
         <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -2869,22 +2870,22 @@
         <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -2892,13 +2893,13 @@
         <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -2906,10 +2907,10 @@
         <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -2917,16 +2918,16 @@
         <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -2934,25 +2935,25 @@
         <v>207</v>
       </c>
       <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
         <v>132</v>
       </c>
-      <c r="C102" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" t="s">
-        <v>133</v>
-      </c>
       <c r="E102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -2960,22 +2961,22 @@
         <v>1</v>
       </c>
       <c r="B103" t="s">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" t="s">
         <v>134</v>
       </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" t="s">
-        <v>135</v>
-      </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -2983,19 +2984,19 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -3003,19 +3004,19 @@
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -3023,19 +3024,19 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
         <v>139</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>140</v>
-      </c>
       <c r="H106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I106">
         <v>70.8</v>
@@ -3046,19 +3047,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G107">
         <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I107">
         <v>66.5</v>
@@ -3069,22 +3070,22 @@
         <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108">
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -3092,10 +3093,10 @@
         <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G109">
         <v>3</v>
@@ -3106,19 +3107,19 @@
         <v>18</v>
       </c>
       <c r="B110" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>20</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
         <v>143</v>
-      </c>
-      <c r="C110" t="s">
-        <v>34</v>
-      </c>
-      <c r="E110" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" t="s">
-        <v>144</v>
       </c>
       <c r="H110">
         <v>2009.4</v>
@@ -3129,10 +3130,10 @@
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H111">
         <v>2017.4</v>
@@ -3143,19 +3144,19 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G112">
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -3163,7 +3164,7 @@
         <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -3174,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -3185,16 +3186,16 @@
         <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G115">
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -3202,16 +3203,16 @@
         <v>35</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E116" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G116">
         <v>6</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -3219,16 +3220,16 @@
         <v>42</v>
       </c>
       <c r="B117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" t="s">
         <v>147</v>
       </c>
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E117" t="s">
-        <v>148</v>
-      </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117">
         <v>4</v>
@@ -3242,13 +3243,13 @@
         <v>43</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D118" t="s">
+        <v>148</v>
+      </c>
+      <c r="E118" t="s">
         <v>149</v>
-      </c>
-      <c r="E118" t="s">
-        <v>150</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -3262,19 +3263,19 @@
         <v>46</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G119">
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I119">
         <v>66</v>
@@ -3285,16 +3286,16 @@
         <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G120">
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -3302,13 +3303,13 @@
         <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D121" t="s">
+        <v>153</v>
+      </c>
+      <c r="G121" t="s">
         <v>154</v>
-      </c>
-      <c r="G121" t="s">
-        <v>155</v>
       </c>
       <c r="I121">
         <v>67.8</v>
@@ -3319,16 +3320,16 @@
         <v>68</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -3336,7 +3337,7 @@
         <v>77</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -3347,16 +3348,16 @@
         <v>99</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G124">
         <v>7</v>
       </c>
       <c r="H124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -3364,22 +3365,22 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -3387,22 +3388,22 @@
         <v>105</v>
       </c>
       <c r="B126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -3410,22 +3411,22 @@
         <v>106</v>
       </c>
       <c r="B127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" t="s">
         <v>35</v>
       </c>
-      <c r="G127" t="s">
-        <v>36</v>
-      </c>
       <c r="H127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -3433,19 +3434,19 @@
         <v>107</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -3453,19 +3454,19 @@
         <v>108</v>
       </c>
       <c r="B129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3473,22 +3474,22 @@
         <v>116</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" t="s">
         <v>35</v>
       </c>
-      <c r="G130" t="s">
-        <v>36</v>
-      </c>
       <c r="H130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -3496,22 +3497,22 @@
         <v>118</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -3519,19 +3520,19 @@
         <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
         <v>35</v>
       </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
       <c r="H132" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -3539,22 +3540,22 @@
         <v>140</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3562,25 +3563,25 @@
         <v>143</v>
       </c>
       <c r="B134" t="s">
+        <v>159</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
         <v>160</v>
       </c>
-      <c r="C134" t="s">
-        <v>34</v>
-      </c>
-      <c r="D134" t="s">
-        <v>161</v>
-      </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -3588,25 +3589,25 @@
         <v>161</v>
       </c>
       <c r="B135" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
         <v>162</v>
       </c>
-      <c r="C135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D135" t="s">
-        <v>163</v>
-      </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" t="s">
         <v>35</v>
       </c>
-      <c r="G135" t="s">
-        <v>36</v>
-      </c>
       <c r="H135" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -3614,25 +3615,25 @@
         <v>169</v>
       </c>
       <c r="B136" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" t="s">
+        <v>33</v>
+      </c>
+      <c r="D136" t="s">
         <v>164</v>
       </c>
-      <c r="C136" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" t="s">
         <v>165</v>
       </c>
-      <c r="E136" t="s">
-        <v>34</v>
-      </c>
-      <c r="F136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" t="s">
-        <v>166</v>
-      </c>
       <c r="H136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -3640,25 +3641,25 @@
         <v>177</v>
       </c>
       <c r="B137" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" t="s">
         <v>167</v>
       </c>
-      <c r="C137" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" t="s">
+        <v>35</v>
+      </c>
+      <c r="H137" t="s">
         <v>168</v>
-      </c>
-      <c r="E137" t="s">
-        <v>34</v>
-      </c>
-      <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="s">
-        <v>36</v>
-      </c>
-      <c r="H137" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -3666,22 +3667,22 @@
         <v>178</v>
       </c>
       <c r="B138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,22 +3690,22 @@
         <v>179</v>
       </c>
       <c r="B139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H139" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -3712,19 +3713,19 @@
         <v>182</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
+        <v>171</v>
+      </c>
+      <c r="H140" t="s">
         <v>172</v>
-      </c>
-      <c r="H140" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -3732,19 +3733,19 @@
         <v>183</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H141" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -3752,19 +3753,19 @@
         <v>185</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H142" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -3772,19 +3773,19 @@
         <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H143" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -3792,10 +3793,10 @@
         <v>197</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E144" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -3803,10 +3804,10 @@
         <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -3814,58 +3815,58 @@
         <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D148" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -3873,16 +3874,16 @@
         <v>72</v>
       </c>
       <c r="D153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -3890,26 +3891,27 @@
         <v>81</v>
       </c>
       <c r="B154" t="s">
+        <v>178</v>
+      </c>
+      <c r="D154" t="s">
         <v>179</v>
       </c>
-      <c r="D154" t="s">
-        <v>180</v>
-      </c>
       <c r="E154" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" t="s">
         <v>21</v>
-      </c>
-      <c r="F154" t="s">
-        <v>22</v>
       </c>
       <c r="G154">
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>